--- a/simple-trans/correct_predictions.xlsx
+++ b/simple-trans/correct_predictions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F273"/>
+  <dimension ref="A1:F267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,21 +647,21 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally .</t>
+          <t>Aircraft entered Fixed-Wing Mode . Current flight speed is nnn . Press C2 to exit .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
+          <t>Current flight speed is nnn</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0-10</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -797,31 +797,31 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment . Manually adjust flight route or return to home .</t>
+          <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Manually adjust flight route or return to home</t>
+          <t>Unable to hover</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>6-13</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -836,52 +836,52 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment</t>
+          <t>Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>6-13</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zone . Unable to take off . Check map to find Recommended Zones .</t>
+          <t>Aircraft in high interference environment . Manually adjust flight route or return to home .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Check map to find Recommended Zones</t>
+          <t>Aircraft in high interference environment</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>10-15</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -896,22 +896,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zone</t>
+          <t>Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>10-15</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -926,12 +926,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Unable to take off</t>
+          <t>Aircraft in Restricted Zone</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -947,21 +947,21 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
+          <t>Aircraft in Restricted Zone . Unable to take off . Check map to find Recommended Zones .</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point</t>
+          <t>Unable to take off</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -977,51 +977,51 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Aircraft is landing due to low voltage, which cannot be stopped . You can decelerate the descending speed and avoid obstacles using sticks .</t>
+          <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>You can decelerate the descending speed and avoid obstacles using sticks</t>
+          <t>Aircraft is close to the Home Point</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>12-22</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point . Minimum RTH Altitude is 30m . You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH .</t>
+          <t>Aircraft is landing due to low voltage, which cannot be stopped . You can decelerate the descending speed and avoid obstacles using sticks .</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH</t>
+          <t>You can decelerate the descending speed and avoid obstacles using sticks</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>14-26</t>
+          <t>12-22</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1046,22 +1046,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point</t>
+          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>14-26</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1076,42 +1076,42 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Minimum RTH Altitude is 30m</t>
+          <t>Aircraft is returning to the Home Point</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>8-12</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point . RTH Altitude is 30m . You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+          <t>Aircraft is returning to the Home Point . Minimum RTH Altitude is 30m . You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH .</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
+          <t>Minimum RTH Altitude is 30m</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>13-27</t>
+          <t>8-12</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1136,12 +1136,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>RTH Altitude is 30m</t>
+          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>8-11</t>
+          <t>13-27</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1166,37 +1166,37 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point</t>
+          <t>RTH Altitude is 30m</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the starting point .</t>
+          <t>Aircraft is returning to the Home Point . RTH Altitude is 30m . You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the starting point</t>
+          <t>Aircraft is returning to the Home Point</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1217,31 +1217,31 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated . Power off aircraft and wait for temperature to return to normal .</t>
+          <t>Aircraft is returning to the starting point .</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Power off aircraft and wait for temperature to return to normal</t>
+          <t>Aircraft is returning to the starting point</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>5-15</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1256,42 +1256,42 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated</t>
+          <t>Power off aircraft and wait for temperature to return to normal</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>5-15</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Aircraft processor overheated . Automatically returning to home .</t>
+          <t>Aircraft processor chip overheated . Power off aircraft and wait for temperature to return to normal .</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Aircraft processor overheated</t>
+          <t>Aircraft processor chip overheated</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1316,12 +1316,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Automatically returning to home</t>
+          <t>Aircraft processor overheated</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1337,21 +1337,21 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Aircraft switched to ATTI mode .</t>
+          <t>Aircraft processor overheated . Automatically returning to home .</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Aircraft switched to ATTI mode</t>
+          <t>Automatically returning to home</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1367,21 +1367,21 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Aircraft too Far . Cannot enter Follow Me Mode .</t>
+          <t>Aircraft switched to ATTI mode .</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Aircraft too Far</t>
+          <t>Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1406,12 +1406,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Cannot enter Follow Me Mode</t>
+          <t>Aircraft too Far</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1427,21 +1427,21 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
+          <t>Aircraft too Far . Cannot enter Follow Me Mode .</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>AirSense communication error</t>
+          <t>Cannot enter Follow Me Mode</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1466,42 +1466,42 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>AirSense communication error</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>14-16</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Altitude Zone nnn .</t>
+          <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Altitude Zone nnn</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>14-16</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1511,32 +1511,32 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>API Automatic Return Home .</t>
+          <t>Altitude Zone nnn .</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>API Automatic Return Home</t>
+          <t>Altitude Zone nnn</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1547,16 +1547,16 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Approaching a No-Fly Zone . RTH may be affected . Fly with caution .</t>
+          <t>API Automatic Return Home .</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Approaching a No-Fly Zone</t>
+          <t>API Automatic Return Home</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1586,22 +1586,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Approaching a No-Fly Zone</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1616,12 +1616,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>RTH may be affected</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>10-12</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2066,52 +2066,52 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Stop flying and wait for battery temperature to return to normal</t>
+          <t>Battery overheating</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>3-13</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Battery power low . Check battery status and charge or warm up battery .</t>
+          <t>Battery overheating . Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Battery power low</t>
+          <t>Stop flying and wait for battery temperature to return to normal</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-13</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2126,72 +2126,72 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Check battery status and charge or warm up battery</t>
+          <t>Battery power low</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>4-12</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Battery: Low Voltage Protection .</t>
+          <t>Battery power low . Check battery status and charge or warm up battery .</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Battery: Low Voltage Protection</t>
+          <t>Check battery status and charge or warm up battery</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-12</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Camera error . AI Spot-Check failed . Restart camera .</t>
+          <t>Battery: Low Voltage Protection .</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Camera error</t>
+          <t>Battery: Low Voltage Protection</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2216,12 +2216,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>AI Spot-Check failed</t>
+          <t>Camera error</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2246,52 +2246,52 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Restart camera</t>
+          <t>AI Spot-Check failed</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>7-8</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
+          <t>Camera error . AI Spot-Check failed . Restart camera .</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Hardware malfunction</t>
+          <t>Restart camera</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>7-8</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2306,22 +2306,22 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Contact DJI Support to arrange for repairs</t>
+          <t>Hardware malfunction</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>7-13</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2336,52 +2336,52 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Camera sensor error</t>
+          <t>Contact DJI Support to arrange for repairs</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>7-13</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Cannot change current flight mode . Enable Multiple Flight Modes in Settings menu to change .</t>
+          <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Enable Multiple Flight Modes in Settings menu to change</t>
+          <t>Camera sensor error</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>6-14</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2396,42 +2396,42 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Cannot change current flight mode</t>
+          <t>Enable Multiple Flight Modes in Settings menu to change</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>6-14</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Cannot exit ActiveTrack .</t>
+          <t>Cannot change current flight mode . Enable Multiple Flight Modes in Settings menu to change .</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Cannot exit ActiveTrack</t>
+          <t>Cannot change current flight mode</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2447,16 +2447,16 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Cannot Identify Subject .</t>
+          <t>Cannot exit ActiveTrack .</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Cannot Identify Subject</t>
+          <t>Cannot exit ActiveTrack</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2477,21 +2477,21 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Cannot start Return to Home due to weak GPS signal .</t>
+          <t>Cannot Identify Subject .</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Cannot start Return to Home due to weak GPS signal</t>
+          <t>Cannot Identify Subject</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0-9</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2507,31 +2507,31 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode . Turn on "Multiple Flight Modes" to enable Atti and Sport Modes .</t>
+          <t>Cannot start Return to Home due to weak GPS signal .</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
+          <t>Cannot start Return to Home due to weak GPS signal</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>5-15</t>
+          <t>0-9</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2546,47 +2546,47 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode</t>
+          <t>Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>5-15</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Cannot track subject : No image . Please retry .</t>
+          <t>Cannot switch flight mode . Turn on "Multiple Flight Modes" to enable Atti and Sport Modes .</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>No image</t>
+          <t>Cannot switch flight mode</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -2606,12 +2606,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Please retry</t>
+          <t>No image</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>7-8</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2621,7 +2621,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2636,32 +2636,32 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Cannot track subject</t>
+          <t>Please retry</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>7-8</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Cannot track subject : Subject too Large . Move Away and retry .</t>
+          <t>Cannot track subject : No image . Please retry .</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2696,17 +2696,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Subject too Large</t>
+          <t>Cannot track subject</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -2726,12 +2726,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Move Away and retry</t>
+          <t>Subject too Large</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>8-11</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2741,37 +2741,37 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Cannot track subject : Subject too Small . Get Closer and retry .</t>
+          <t>Cannot track subject : Subject too Large . Move Away and retry .</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Cannot track subject</t>
+          <t>Move Away and retry</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2786,17 +2786,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Subject too Small</t>
+          <t>Cannot track subject</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -2816,12 +2816,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Get Closer and retry</t>
+          <t>Subject too Small</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>8-11</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2831,37 +2831,37 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Capture Failed . Insufficient storage space . Cannot shoot panorama .</t>
+          <t>Cannot track subject : Subject too Small . Get Closer and retry .</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Capture Failed</t>
+          <t>Get Closer and retry</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2876,17 +2876,17 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Insufficient storage space</t>
+          <t>Capture Failed</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -2906,17 +2906,17 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Cannot shoot panorama</t>
+          <t>Insufficient storage space</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -2927,21 +2927,21 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Command Failed .</t>
+          <t>Capture Failed . Insufficient storage space . Cannot shoot panorama .</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Command Failed</t>
+          <t>Cannot shoot panorama</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2957,16 +2957,16 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Compass error , calibration required .</t>
+          <t>Command Failed .</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Compass error</t>
+          <t>Command Failed</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3107,21 +3107,21 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Compass Error . Compass Error . Compass data error . Please contact DJI Support .</t>
+          <t>Compass Error . Compass direction is not the same with IMU .</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-10</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3146,12 +3146,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Compass data error</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3176,12 +3176,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Compass data error</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3206,52 +3206,52 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Please contact DJI Support</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>10-13</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Compass Error . Compass Error . Compass disconnected .</t>
+          <t>Compass Error . Compass Error . Compass data error . Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Please contact DJI Support</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>10-13</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -3266,12 +3266,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Compass disconnected</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>6-7</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -3296,12 +3296,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Compass disconnected</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>6-7</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3317,11 +3317,11 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Compass Error . Compass Redundancy Switch .</t>
+          <t>Compass Error . Compass Error . Compass disconnected .</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3331,7 +3331,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3356,12 +3356,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Compass Redundancy Switch</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3377,21 +3377,21 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Compass Interference . Temp Max Altitude : 98ft .</t>
+          <t>Compass Error . Compass Redundancy Switch .</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Compass Interference</t>
+          <t>Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -3407,11 +3407,11 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Compass Interference . Temp Max Altitude: nnn .</t>
+          <t>Compass Interference . Temp Max Altitude : 98ft .</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3446,17 +3446,17 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Temp Max Altitude: nnn</t>
+          <t>Compass Interference</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -4037,21 +4037,21 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Downlink Lost .</t>
+          <t>Downlink data connection lost for nnn seconds .</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Downlink Lost</t>
+          <t>Downlink data connection lost for nnn seconds</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -4067,21 +4067,21 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 0.9s) .</t>
+          <t>Downlink Lost .</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 0.9s)</t>
+          <t>Downlink Lost</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -4097,16 +4097,16 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.4s) .</t>
+          <t>Downlink Restored (after 0m 0.9s) .</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.4s)</t>
+          <t>Downlink Restored (after 0m 0.9s)</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -4127,16 +4127,16 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.6s) .</t>
+          <t>Downlink Restored (after 0m 1.4s) .</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.6s)</t>
+          <t>Downlink Restored (after 0m 1.4s)</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -4157,16 +4157,16 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11.3s) .</t>
+          <t>Downlink Restored (after 0m 1.6s) .</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11.3s)</t>
+          <t>Downlink Restored (after 0m 1.6s)</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -4187,16 +4187,16 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1s) .</t>
+          <t>Downlink Restored (after 0m 11.3s) .</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1s)</t>
+          <t>Downlink Restored (after 0m 11.3s)</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -4217,16 +4217,16 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.2s) .</t>
+          <t>Downlink Restored (after 0m 1s) .</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.2s)</t>
+          <t>Downlink Restored (after 0m 1s)</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -4247,16 +4247,16 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.8s) .</t>
+          <t>Downlink Restored (after 0m 2.2s) .</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.8s)</t>
+          <t>Downlink Restored (after 0m 2.2s)</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -4277,31 +4277,31 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution .</t>
+          <t>Downlink Restored (after 0m 5.8s) .</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Obstacle avoidance unavailable</t>
+          <t>Downlink Restored (after 0m 5.8s)</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -4316,22 +4316,22 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Downward ambient light too low</t>
+          <t>Obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -4346,42 +4346,42 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Downward ambient light too low</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Error: Course angle control error . Please ensure the propellers are installed on the correct motors .</t>
+          <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution .</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Please ensure the propellers are installed on the correct motors</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>6-15</t>
+          <t>10-12</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -4397,46 +4397,46 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Executing waypoint mission .</t>
+          <t>Error: Course angle control error . Please ensure the propellers are installed on the correct motors .</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Executing waypoint mission</t>
+          <t>Please ensure the propellers are installed on the correct motors</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>6-15</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Exited Hyperlapse mode .</t>
+          <t>Executing waypoint mission .</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Exited Hyperlapse mode</t>
+          <t>Executing waypoint mission</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4457,16 +4457,16 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Extra payload detected . Max altitude and distance set . Fly with caution .</t>
+          <t>Exited Hyperlapse mode .</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Extra payload detected</t>
+          <t>Exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4496,22 +4496,22 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Extra payload detected</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -4526,42 +4526,42 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Max altitude and distance set</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>10-12</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Extra payload detected . Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
+          <t>Extra payload detected . Max altitude and distance set . Fly with caution .</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Extra payload detected</t>
+          <t>Max altitude and distance set</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -4586,12 +4586,12 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Extra payload detected</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>4-18</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -4607,21 +4607,21 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Failed to cancel landing .</t>
+          <t>Extra payload detected . Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Failed to cancel landing</t>
+          <t>Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-18</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -4637,21 +4637,21 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
+          <t>Failed to cancel landing .</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear</t>
+          <t>Failed to cancel landing</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>0-7</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -5336,22 +5336,22 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>High wind velocity</t>
+          <t>Fly with caution and land in a safe place ASAP</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>22-31</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -5401,7 +5401,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>18-20</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -5411,7 +5411,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -5447,31 +5447,31 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>High wind velocity . Fly with caution .</t>
+          <t>High wind velocity . Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>High wind velocity</t>
+          <t>Fly with caution and land in a safe place ASAP</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-13</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -5486,52 +5486,52 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>High wind velocity</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Home Point Recorded , Return-to-Home Altitude : 98FT .</t>
+          <t>High wind velocity . Fly with caution .</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Home Point Recorded</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -5546,17 +5546,17 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Calibrate IMU</t>
+          <t>IMU calibration required</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -5567,16 +5567,16 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>IMU calibration required . Calibrate IMU .</t>
+          <t>IMU not calibrated . Calibrate IMU .</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>IMU calibration required</t>
+          <t>IMU not calibrated</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -5597,56 +5597,56 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>IMU not calibrated . Calibrate IMU .</t>
+          <t>IMU warming up . Wait before taking off .</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>IMU not calibrated</t>
+          <t>Wait before taking off</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>IMU warming up . Wait before taking off .</t>
+          <t>In Flight .</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>IMU warming up</t>
+          <t>In Flight</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -5657,51 +5657,51 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>IMU warming up . Wait before taking off .</t>
+          <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Wait before taking off</t>
+          <t>Incompatible firmware version</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>In Flight .</t>
+          <t>Intelligent Flight Modes have not been enabled . Enable this option in Main Controller Settings if needed .</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>In Flight</t>
+          <t>Enable this option in Main Controller Settings if needed</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>8-16</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -5711,27 +5711,27 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
+          <t>Intelligent Flight Modes have not been enabled . Enable this option in Main Controller Settings if needed .</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Incompatible firmware version</t>
+          <t>Intelligent Flight Modes have not been enabled</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -5747,51 +5747,51 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Intelligent Flight Modes have not been enabled . Enable this option in Main Controller Settings if needed .</t>
+          <t>Landing Canceled .</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Enable this option in Main Controller Settings if needed</t>
+          <t>Landing Canceled</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>8-16</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Intelligent Flight Modes have not been enabled . Enable this option in Main Controller Settings if needed .</t>
+          <t>Landing Gear Paused .</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Intelligent Flight Modes have not been enabled</t>
+          <t>Landing Gear Paused</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -5807,21 +5807,21 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Landing Canceled .</t>
+          <t>Landing Protection Activated . Aircraft will decelerate during landing .</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Landing Canceled</t>
+          <t>Landing Protection Activated</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -5837,21 +5837,21 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Landing Gear Paused .</t>
+          <t>Landing Protection Activated . Aircraft will decelerate during landing .</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Landing Gear Paused</t>
+          <t>Aircraft will decelerate during landing</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -5867,16 +5867,16 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Landing Protection Activated . Aircraft will decelerate during landing .</t>
+          <t>Large Wind Velocity . Fly with caution .</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Landing Protection Activated</t>
+          <t>Large Wind Velocity</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -5897,46 +5897,46 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Landing Protection Activated . Aircraft will decelerate during landing .</t>
+          <t>Large Wind Velocity . Fly with caution .</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Aircraft will decelerate during landing</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Large Wind Velocity . Fly with caution .</t>
+          <t>Locating Landing Point .</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Large Wind Velocity</t>
+          <t>Locating Landing Point</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -5957,171 +5957,171 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Large Wind Velocity . Fly with caution .</t>
+          <t>Low battery . Recharge promptly .</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Low battery</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Locating Landing Point .</t>
+          <t>Low battery . Recharge promptly .</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Locating Landing Point</t>
+          <t>Recharge promptly</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Low battery . Recharge promptly .</t>
+          <t>Low power , please replace the battery .</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Low battery</t>
+          <t>please replace the battery</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Low battery . Recharge promptly .</t>
+          <t>Low Power . Returning home .</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Recharge promptly</t>
+          <t>Low Power</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Low power , please replace the battery .</t>
+          <t>Low Power . Returning home .</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>please replace the battery</t>
+          <t>Returning home</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Low Power . Returning home .</t>
+          <t>Max Altitude Approached . Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Low Power</t>
+          <t>Max Altitude Approached</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -6137,61 +6137,61 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Low Power . Returning home .</t>
+          <t>Max Altitude Approached . Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Returning home</t>
+          <t>Wait for the GPS satellite signal recovery before ascend</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>4-12</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Max Altitude Approached . Wait for the GPS satellite signal recovery before ascend .</t>
+          <t>Maximum Flight Altitude Reached . Adjust altitude in MC Settings if required .</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Wait for the GPS satellite signal recovery before ascend</t>
+          <t>Maximum Flight Altitude Reached</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>4-12</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -6206,52 +6206,52 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached</t>
+          <t>Adjust altitude in MC Settings if required</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>5-11</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached . Adjust altitude in MC Settings if required .</t>
+          <t>Mobile device CPU fully loaded . Related performance will be affected .</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Adjust altitude in MC Settings if required</t>
+          <t>Mobile device CPU fully loaded</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>5-11</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -6266,12 +6266,12 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Mobile device CPU fully loaded</t>
+          <t>Related performance will be affected</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -6287,31 +6287,31 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Mobile device CPU fully loaded . Related performance will be affected .</t>
+          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Related performance will be affected</t>
+          <t>Land or return to home promptly</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -6326,22 +6326,22 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Land or return to home promptly</t>
+          <t>Motor speed error</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -6356,52 +6356,52 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Motor speed error</t>
+          <t>If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>24-30</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
+          <t>Motor stuck . Check for objects blocking motor or contact DJI Support for assistance X .</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>If the issue persists, contact DJI Support</t>
+          <t>Motor stuck</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>24-30</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -6416,52 +6416,52 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Motor stuck</t>
+          <t>Check for objects blocking motor or contact DJI Support for assistance X</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-14</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Motor stuck . Check for objects blocking motor or contact DJI Support for assistance X .</t>
+          <t>Motor unable to rotate . Check motor .</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Check for objects blocking motor or contact DJI Support for assistance X</t>
+          <t>Motor unable to rotate</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>3-14</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -6476,42 +6476,42 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Motor unable to rotate</t>
+          <t>Check motor</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>5-6</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Motor unable to rotate . Check motor .</t>
+          <t>No SD card . Insert card .</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Check motor</t>
+          <t>Insert card</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>5-6</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -6521,7 +6521,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -6536,17 +6536,17 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Insert card</t>
+          <t>No SD card</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -6557,21 +6557,21 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>No SD card . Insert card .</t>
+          <t>Object too close to laser rangefinder .</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>No SD card</t>
+          <t>Object too close to laser rangefinder</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -6587,21 +6587,21 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Object too close to laser rangefinder .</t>
+          <t>Obstacle Avoidance Disabled .</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Object too close to laser rangefinder</t>
+          <t>Obstacle Avoidance Disabled</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -6617,21 +6617,21 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled .</t>
+          <t>Precision Landing . Locating Landing Point .</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -6656,12 +6656,12 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Locating Landing Point</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -6677,21 +6677,21 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Precision Landing . Locating Landing Point .</t>
+          <t>Precision Landing . Rectifying aircraft position .</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Locating Landing Point</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -6716,12 +6716,12 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Rectifying aircraft position</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -6737,21 +6737,21 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Precision Landing . Rectifying aircraft position .</t>
+          <t>Propeller Fell Off .</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Rectifying aircraft position</t>
+          <t>Propeller Fell Off</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -6767,21 +6767,21 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Propeller Fell Off .</t>
+          <t>Propeller Guard Mounted Propeller Guard mounted . Forward Obstacle Sensing will be automatically switched off .</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Propeller Fell Off</t>
+          <t>Propeller Guard Mounted Propeller Guard mounted</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -6797,21 +6797,21 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Propeller Guard Mounted Propeller Guard mounted . Forward Obstacle Sensing will be automatically switched off .</t>
+          <t>Propulsion output has been limited to ensure battery health .</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Propeller Guard Mounted Propeller Guard mounted</t>
+          <t>Propulsion output has been limited to ensure battery health</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>0-8</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -6827,21 +6827,21 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Propeller Guard Mounted Propeller Guard mounted . Forward Obstacle Sensing will be automatically switched off .</t>
+          <t>Remote controller signal lost .</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing will be automatically switched off</t>
+          <t>Remote controller signal lost</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -6857,21 +6857,21 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Propulsion output has been limited to ensure battery health .</t>
+          <t>Remote controller signal weak . Adjust remote controller antennas .</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Propulsion output has been limited to ensure battery health</t>
+          <t>Remote controller signal weak</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>0-8</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -6887,21 +6887,21 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Recharge promptly .</t>
+          <t>Remote controller signal weak . Adjust remote controller antennas .</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Recharge promptly</t>
+          <t>Adjust remote controller antennas</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -6917,201 +6917,201 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Remote controller signal lost .</t>
+          <t>Remote ID error . Connect to network to obtain mobile device location . Flying without broadcasting required remote ID messages may violate local regulations .</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Remote controller signal lost</t>
+          <t>Connect to network to obtain mobile device location</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-11</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Remote controller signal weak . Adjust remote controller antennas .</t>
+          <t>Remote ID error . Connect to network to obtain mobile device location . Flying without broadcasting required remote ID messages may violate local regulations .</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Remote controller signal weak</t>
+          <t>Flying without broadcasting required remote ID messages may violate local regulations</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>13-23</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Remote controller signal weak . Adjust remote controller antennas .</t>
+          <t>Remote ID error . Connect to network to obtain mobile device location . Flying without broadcasting required remote ID messages may violate local regulations .</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Adjust remote controller antennas</t>
+          <t>Remote ID error</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Remote ID error . Connect to network to obtain mobile device location . Flying without broadcasting required remote ID messages may violate local regulations .</t>
+          <t>Returning to the Home Point .</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Connect to network to obtain mobile device location</t>
+          <t>Returning to the Home Point</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>4-11</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Remote ID error . Connect to network to obtain mobile device location . Flying without broadcasting required remote ID messages may violate local regulations .</t>
+          <t>Right Dial Locked . Lightly press to adjust .</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Flying without broadcasting required remote ID messages may violate local regulations</t>
+          <t>Right Dial Locked</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>13-23</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Remote ID error . Connect to network to obtain mobile device location . Flying without broadcasting required remote ID messages may violate local regulations .</t>
+          <t>Right Dial Locked . Lightly press to adjust .</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Remote ID error</t>
+          <t>Lightly press to adjust</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Returning to the Home Point .</t>
+          <t>RTH : Cruise .</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Returning to the Home Point</t>
+          <t>RTH : Cruise</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -7127,16 +7127,16 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Right Dial Locked . Lightly press to adjust .</t>
+          <t>RTH : Preascending .</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Right Dial Locked</t>
+          <t>RTH : Preascending</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -7157,21 +7157,21 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Right Dial Locked . Lightly press to adjust .</t>
+          <t>RTK Base Station Data Not Received . Please make sure base station antenna is connected to the correct port .</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Lightly press to adjust</t>
+          <t>Please make sure base station antenna is connected to the correct port</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>7-18</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -7187,21 +7187,21 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>RTH : Cruise .</t>
+          <t>RTK Base Station Data Not Received . Please make sure base station antenna is connected to the correct port .</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>RTH : Cruise</t>
+          <t>RTK Base Station Data Not Received</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -7217,16 +7217,16 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>RTH : Preascending .</t>
+          <t>SD card full . Change card or delete files .</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>RTH : Preascending</t>
+          <t>SD card full</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -7247,26 +7247,26 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received . Please make sure base station antenna is connected to the correct port .</t>
+          <t>SD card full . Change card or delete files .</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Please make sure base station antenna is connected to the correct port</t>
+          <t>Change card or delete files</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>7-18</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -7277,21 +7277,21 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received . Please make sure base station antenna is connected to the correct port .</t>
+          <t>SD card speed low . Change card .</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received</t>
+          <t>SD card speed low</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -7307,21 +7307,21 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>SD card full . Change card or delete files .</t>
+          <t>SD card speed low . Change card .</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>SD card full</t>
+          <t>Change card</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>5-6</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -7331,27 +7331,27 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>SD card full . Change card or delete files .</t>
+          <t>Setting new Maximum Flight Altitude to nnn .</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Change card or delete files</t>
+          <t>Setting new Maximum Flight Altitude to nnn</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -7361,57 +7361,57 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>SD card speed low . Change card .</t>
+          <t>Strong Interference Detected . Be careful when flying long distances .</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>SD card speed low</t>
+          <t>Be careful when flying long distances</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>SD card speed low . Change card .</t>
+          <t>Strong Interference Detected . Be careful when flying long distances .</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Change card</t>
+          <t>Strong Interference Detected</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>5-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -7421,27 +7421,27 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Setting new Maximum Flight Altitude to nnn .</t>
+          <t>Strong Interference Now . Fly with caution .</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Setting new Maximum Flight Altitude to nnn</t>
+          <t>Strong Interference Now</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -7457,111 +7457,111 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Starting Smart Track .</t>
+          <t>Strong Interference Now . Fly with caution .</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Starting Smart Track</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Strong Interference Detected . Be careful when flying long distances .</t>
+          <t>Strong Interference . Fly with caution .</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Be careful when flying long distances</t>
+          <t>Strong Interference</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Strong Interference Detected . Be careful when flying long distances .</t>
+          <t>Strong Interference . Fly with caution .</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Strong Interference Detected</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Strong Interference Now . Fly with caution .</t>
+          <t>Strong wind warning . Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Strong Interference Now</t>
+          <t>Aircraft unable to return to home automatically</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-10</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -7577,231 +7577,231 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Strong Interference Now . Fly with caution .</t>
+          <t>Strong wind warning . Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Strong wind warning</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Strong Interference . Fly with caution .</t>
+          <t>Strong wind warning . Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Strong Interference</t>
+          <t>Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>12-19</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Strong Interference . Fly with caution .</t>
+          <t>Strong wind . Fly with caution .</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Strong wind</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Strong wind warning . Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
+          <t>Strong wind . Fly with caution .</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>4-10</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Strong wind warning . Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
+          <t>Switched to gimbal free mode . Use the RC to control aircraft yaw .</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Strong wind warning</t>
+          <t>Use the RC to control aircraft yaw</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>6-12</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Strong wind warning . Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
+          <t>Switched to gimbal free mode . Use the RC to control aircraft yaw .</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Lower altitude immediately and return to home manually</t>
+          <t>Switched to gimbal free mode</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>12-19</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Strong wind . Fly with caution .</t>
+          <t>Tap the screen lightly to focus .</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Strong wind</t>
+          <t>Tap the screen lightly to focus</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Strong wind . Fly with caution .</t>
+          <t>Tap the screen to focus .</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Tap the screen to focus</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -7817,81 +7817,81 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Switched to gimbal free mode . Use the RC to control aircraft yaw .</t>
+          <t>Vision sensor error . Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Use the RC to control aircraft yaw</t>
+          <t>Vision sensor error</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>6-12</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Switched to gimbal free mode . Use the RC to control aircraft yaw .</t>
+          <t>Vision sensor error . Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Switched to gimbal free mode</t>
+          <t>Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Tap the screen lightly to focus .</t>
+          <t>Warning: Battery Temperature Below 15°C (59F) . Warm battery to above 25°C (77F) before flying .</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Tap the screen lightly to focus</t>
+          <t>Warm battery to above 25°C (77F) before flying</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -7907,81 +7907,81 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Tap the screen to focus .</t>
+          <t>Warning: Command Timeout .</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Tap the screen to focus</t>
+          <t>Warning: Command Timeout</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Vision sensor error . Contact DJI Support for assistance .</t>
+          <t>Warning: Critically low battery . Please change the battery .</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Vision sensor error</t>
+          <t>Please change the battery</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Vision sensor error . Contact DJI Support for assistance .</t>
+          <t>Warning: Max Flight Altitude Reached . Adjust in Main Controller Settings if necessary .</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Contact DJI Support for assistance</t>
+          <t>Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>6-12</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -7997,46 +7997,46 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Warning: Battery Temperature Below 15°C (59F) . Warm battery to above 25°C (77F) before flying .</t>
+          <t>Warning: Motor Obstructed .</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Warm battery to above 25°C (77F) before flying</t>
+          <t>Warning: Motor Obstructed</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Warning: Command Timeout .</t>
+          <t>Warning: Motor Overloaded . Aircraft will decelerate to ensure safety .</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Warning: Command Timeout</t>
+          <t>Warning: Motor Overloaded</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -8057,106 +8057,106 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Warning: Critically low battery . Please change the battery .</t>
+          <t>Waypoint Mission Resumed .</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Please change the battery</t>
+          <t>Waypoint Mission Resumed</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Warning: Max Flight Altitude Reached . Adjust in Main Controller Settings if necessary .</t>
+          <t>Waypoint Mission Start .</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Adjust in Main Controller Settings if necessary</t>
+          <t>Waypoint Mission Start</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>6-12</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Warning: Max Flight Altitude Reached . Adjust in Main Controller Settings if necessary .</t>
+          <t>Weak GPS signal . Aircraft is in Attitude mode and hovering may be unstable . Fly with caution .</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Warning: Max Flight Altitude Reached</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>15-17</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Warning: Motor Obstructed .</t>
+          <t>Weak GPS signal . Aircraft is in Attitude mode and hovering may be unstable . Fly with caution .</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Warning: Motor Obstructed</t>
+          <t>Weak GPS signal</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -8177,21 +8177,21 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Warning: Motor Overloaded . Aircraft will decelerate to ensure safety .</t>
+          <t>Weak signal . Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight .</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Warning: Motor Overloaded</t>
+          <t>Weak signal</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -8207,21 +8207,21 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Waypoint Mission Resumed .</t>
+          <t>Weak signal . Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight . Downlink Lost .</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Waypoint Mission Resumed</t>
+          <t>Weak signal</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -8237,81 +8237,81 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Waypoint Mission Start .</t>
+          <t>Weak signal . Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight . Downlink Lost .</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Waypoint Mission Start</t>
+          <t>Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-19</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Weak GPS signal . Aircraft is in Attitude mode and hovering may be unstable . Fly with caution .</t>
+          <t>Weak signal . Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight . Downlink Lost .</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Downlink Lost</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>15-17</t>
+          <t>21-22</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Weak GPS signal . Aircraft is in Attitude mode and hovering may be unstable . Fly with caution .</t>
+          <t>Weak signal . Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Weak GPS signal</t>
+          <t>Weak signal</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -8327,111 +8327,111 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Weak signal . Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight .</t>
+          <t>Weak signal . Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Weak signal</t>
+          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-15</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Weak signal . Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight .</t>
+          <t>Your aircraft has entered a Warning Zone (Class D) . Please fly with caution .</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight</t>
+          <t>Your aircraft has entered a Warning Zone (Class D)</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>3-19</t>
+          <t>0-8</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Weak signal . Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight . Downlink Lost .</t>
+          <t>Your aircraft has entered a Warning Zone (Class D) . Please fly with caution .</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Weak signal</t>
+          <t>Please fly with caution</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>10-13</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Weak signal . Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight . Downlink Lost .</t>
+          <t>Your palm is too close to the aircraft . Please step farther away .</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight</t>
+          <t>Please step farther away</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>3-19</t>
+          <t>9-12</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -8440,186 +8440,6 @@
         </is>
       </c>
       <c r="F267" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="n">
-        <v>168</v>
-      </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>Weak signal . Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight . Downlink Lost .</t>
-        </is>
-      </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>Downlink Lost</t>
-        </is>
-      </c>
-      <c r="D268" t="inlineStr">
-        <is>
-          <t>21-22</t>
-        </is>
-      </c>
-      <c r="E268" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="F268" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="n">
-        <v>169</v>
-      </c>
-      <c r="B269" t="inlineStr">
-        <is>
-          <t>Weak signal . Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
-        </is>
-      </c>
-      <c r="C269" t="inlineStr">
-        <is>
-          <t>Weak signal</t>
-        </is>
-      </c>
-      <c r="D269" t="inlineStr">
-        <is>
-          <t>0-1</t>
-        </is>
-      </c>
-      <c r="E269" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="F269" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="n">
-        <v>169</v>
-      </c>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>Weak signal . Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
-        </is>
-      </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
-        </is>
-      </c>
-      <c r="D270" t="inlineStr">
-        <is>
-          <t>3-15</t>
-        </is>
-      </c>
-      <c r="E270" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F270" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="n">
-        <v>170</v>
-      </c>
-      <c r="B271" t="inlineStr">
-        <is>
-          <t>Your aircraft has entered a Warning Zone (Class D) . Please fly with caution .</t>
-        </is>
-      </c>
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>Your aircraft has entered a Warning Zone (Class D)</t>
-        </is>
-      </c>
-      <c r="D271" t="inlineStr">
-        <is>
-          <t>0-8</t>
-        </is>
-      </c>
-      <c r="E271" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="F271" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="n">
-        <v>170</v>
-      </c>
-      <c r="B272" t="inlineStr">
-        <is>
-          <t>Your aircraft has entered a Warning Zone (Class D) . Please fly with caution .</t>
-        </is>
-      </c>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>Please fly with caution</t>
-        </is>
-      </c>
-      <c r="D272" t="inlineStr">
-        <is>
-          <t>10-13</t>
-        </is>
-      </c>
-      <c r="E272" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F272" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="n">
-        <v>171</v>
-      </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>Your palm is too close to the aircraft . Please step farther away .</t>
-        </is>
-      </c>
-      <c r="C273" t="inlineStr">
-        <is>
-          <t>Please step farther away</t>
-        </is>
-      </c>
-      <c r="D273" t="inlineStr">
-        <is>
-          <t>9-12</t>
-        </is>
-      </c>
-      <c r="E273" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F273" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
